--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560354/JX560354_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560354/JX560354_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89336315235</v>
+        <v>45441.83361538685</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1878_1881insgac']</t>
+          <t>['1809_1831del', '1845_1927insgagttcctctccaaaaaccggctgttgtggaaaaatcaagattgattggatggacctataagggtcgaaaaggggagatcga', '1847_1942del', '1819_1876insgtgtttacgcccgcatcgcgccaaatataactgactattgagggtcacatgttgcga', '1964_2090del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.8933631813</v>
+        <v>45441.83361541913</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['615_618del']</t>
+          <t>['647_709del', '606_752del', '610_743del', '623_754insaagcaggcatggaggtgcaacggatgaatgcgacaggttttacgaggtaggacacgtgcccgtagcggcggtgaacggtgctaagacggcatacttccaccggggagttggaggggcgcagttgttcagct', '626_695insgttacatttgacggtctgacctattcaacgcagctagtactgattcaaaatgcacggggggagcggggc']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89336320444</v>
+        <v>45441.83361544235</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['4016_4017del']</t>
+          <t>['4115_4264del', '4066_4185insggattatcttcgtcgtgagtgctcgctccattcaccatggggtcggtcgattggagctgctgcatggatagaacagaagtctacgctttaaacagtcttgcactcatcatcgatgcttc', '4095_4217inscacgatcgttaaaagaacacacgtactgtagcatccaaccttatctactagggcgcttctcagttagtatcagcacccgcttgtgagcgctctgtccggagcccgaaggcctccaaactaag', '4109_4121inscaactcgagggt', '4018_4083insttgtactctacctcggaacgtagagacacagtcttccggtggattgtgagagactcggttactac']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89336333085</v>
+        <v>45441.83361547128</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1950_1954del']</t>
+          <t>['2002_2052insgggttttatttcgcttgcccaaaaatcggactctcgggggagggaaccta', '1966_2062insgacgaccctcagccggaaccgtacaaatttcaacccaagtctggaggagacgagagtcgacataatgagggggtcttcaactctgaattaaatata', '1837_1907insgcatcgtttgatttatacttttgacgcgtatctcacttgcacaataatccgtggtcgtgagcctgttgat', '1812_1907instgctgtgtaatgtgcgcgcatagattcaagtgtgaaccacaatgacagaaaccagcatattcggcttatgtaggacgtgatacgtatactaacat', '2019_2030insccggtacttag']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['606_610del']</t>
+          <t>['698_799inscacaatagccggacacctccgccaaatgctttggaacatcggtcgacaaaagcggtgctacgcagtaataggggtgtcttggttcgaggaaggcaaccgct', '608_712insacttgtcagaatactaagctctacaccatttcgcgtacgaagagcaaactgtgcctgattaaacacccttcacctcaggccacagggggcgcacaaatgattct', '627_732insatgtctagtagacagcctggacgttgtgcagcataatacggggctgctaggtcgacccgcactcacatgtaacttcatgttgttcggtcgtgaaaagaatgctcg', '602_714del', '638_769del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89336335404</v>
+        <v>45441.83361549961</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1978_1983insaaacg']</t>
+          <t>['1787_1800inscctgaataaacgt', '1894_1995inscctgttgtgtaagtattctcagattacccccctatggagaggccgggatcaccggatcgaccctccatcgcaccaccttgaggagagcgagttcgcattaa', '1861_1971instggctcggagtatggtcgacgtgcatggagcccactaagtacgacacgtctctagttgttgcgagacaattcttgcgactctcccgttataagatacctagggcttccat', '1874_1931del', '1864_1912del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['4113_4114insg']</t>
+          <t>['4024_4133instatcccggtcttcgccctttttatactcactgtattacattaatacggttttacatatccttagaaattgcgttcaaggacttcatatcggcaccattgaaaaccttat', '4083_4169del', '4102_4208instcttaggcaccccctgactcggggactcagcccaagtaaagccccactttccccggtgttcagcgcgtaggattgtccttctcggacggtcgtcattatgaccatt', '4091_4219instgcgatcagtacagtgccagagcgctaaggtttccccatcccctaattaacacaatacgactcgcgcctcttctccgaaaactagccttccgtgtatatttctgattgtatagtttaaacgtgggggg', '4023_4167del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89336337719</v>
+        <v>45441.83361552735</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['682t&gt;g']</t>
+          <t>['666_813insttcagagaagggcgacctggatacggtccgcctataagcccaggtcatttagaggtgatactgaccagggtcagtatccgtctctaatttaggccgtatctcaacagataatcatcgccgcggacagttgatgactagagacgaaag', '697_808del', '656_799insaaccgagttgaggttgcccagtatctaccctctgctacgaccggttatcgctcatggttccacgatacggcctcaacctagaactctcgttatatcgacaagcaaaatactgagatatccgagtagggtgacccgaatctcgt', '640_773insgaactctcggtccgagtgcccgctctcgcgacctgagaccggaatactcgtgttcccggtaaccgcctggctgccccctgctaactagaaaaagcatttttatagtcttcttagaatacccatggagcctgct', '656_764insttttgtatcccactgtggcgtatcaaaatgtccacctaacctccggctgggagctcaaagtgttgcggaagggggacggtacgaagctccatatccttggttgggccg']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['4111t&gt;a']</t>
+          <t>['4071_4121del', '4021_4072del', '4043_4086instccttgtagaaatctaataaacctttcacactgtccaggtcgg', '4016_4121instaccgcttagcacgtactgggcggtgttgggaccggctaaaatgggttagctcccgtagtgcgcgatgactcaacttgtatactcccttcgagatagccgacctt', '4046_4163instcactcctcgctaaatcgccctttgtcctcgtggaaagatcgcgggggggctgacttataaccattttccattgtcttcgggactggcgttagagttctagctgtatgatatggcga']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89336340033</v>
+        <v>45441.83361556152</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1998_2003inscatga']</t>
+          <t>['1970_2041del', '1855_1871instaaactagcgcgtatc', '1977_2051insttaatgctcaaagctaatctaccccagtggtctcgcactcgtggtagtagtgtgagcttgataacaagcagttt', '1926_2068instagttgctctccgttagcacagtcagagacggtattattcttttaggggtacggtcctacatatcttttttagataaaacaaaccgagtgagtaaaggagcatgccagcaatggaaaatggctttcccaggcagtcttgacg', '1953_1985del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['640_643del']</t>
+          <t>['639_706insctctgcagctgtttgttgataaataaacatttattcgacccacgctcgctaatgcgcttctcaactt', '617_650instcacaatgcattctgacggccttcaacgaagag', '672_699del', '610_642inscttctttcacctaatggaccgacctcattagt', '607_727inscttccggtgtataatgccatcaataaattagcgacggaagtcgccccctgtagatacagccgcctaagccttagtggtcccacgatcataactatgacgactggcactgctagcgggtgt']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['4040c&gt;t']</t>
+          <t>['4074_4119instatagctgtatggcacagtggccgcgggaggttcatcggaaaggc', '4120_4256insagtctaagggactcttaatgctggcacgcccgagccgcctagcgtgtgaaatgctatagaaacgttggaactgggtcacacagctacgcttgatggtctgctagcattgagttcttgcatagctagttttagccaa', '4023_4070insctacagagaatacttagctgcgagcgtgagcacggactgtgagactc', '4098_4230instacctgctacaataacaaactgagaaggtcagttagcagtgacattgcggcttaataatacatttccgcacaagcgttactgccccgggctcccaacgtgatcatcgtgtgtaacacattgcaggaagactc', '4024_4130del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89336342347</v>
+        <v>45441.83361558472</v>
       </c>
     </row>
   </sheetData>
